--- a/ptest2.xlsx
+++ b/ptest2.xlsx
@@ -313,9 +313,10 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -332,6 +333,13 @@
     <font>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -377,8 +385,15 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+  <cellXfs count="2">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -394,17 +409,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <cols>
-    <col max="1025" min="1" width="11.5764705882353"/>
+    <col max="1025" min="1" width="11.5714285714286"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
@@ -415,13 +430,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -432,13 +447,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -449,13 +464,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
@@ -744,7 +759,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <cols>
-    <col max="1025" min="1" width="11.5764705882353"/>
+    <col max="1025" min="1" width="11.5714285714286"/>
   </cols>
   <sheetData/>
 </worksheet>
@@ -753,7 +768,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <cols>
-    <col max="1025" min="1" width="11.5764705882353"/>
+    <col max="1025" min="1" width="11.5714285714286"/>
   </cols>
   <sheetData/>
 </worksheet>
